--- a/Research/AppDomainsSuite/TimeLogs/test_suite_outcome.xlsx
+++ b/Research/AppDomainsSuite/TimeLogs/test_suite_outcome.xlsx
@@ -1254,7 +1254,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1319,34 +1319,34 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2364</v>
+        <v>110</v>
       </c>
       <c r="B3">
-        <v>2860</v>
+        <v>619</v>
       </c>
       <c r="C3">
-        <v>2391</v>
+        <v>121</v>
       </c>
       <c r="D3">
-        <v>3275</v>
+        <v>671</v>
       </c>
       <c r="E3">
-        <v>2535</v>
+        <v>116</v>
       </c>
       <c r="F3">
-        <v>3201</v>
+        <v>637</v>
       </c>
       <c r="G3">
-        <v>2495</v>
+        <v>118</v>
       </c>
       <c r="H3">
-        <v>3176</v>
+        <v>665</v>
       </c>
       <c r="I3">
-        <v>2490</v>
+        <v>117</v>
       </c>
       <c r="J3">
-        <v>3208</v>
+        <v>658</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1490,19 +1490,19 @@
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
         <f t="shared" ref="B14:B17" si="0">AVERAGE(A3,C3,E3,G3,I3)</f>
-        <v>2455</v>
+        <v>116.4</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ref="C14:C17" si="1">_xlfn.STDEV.S(A3,C3,E3,G3,I3)</f>
-        <v>73.488094273834591</v>
+        <v>4.0373258476372698</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" ref="D14:D17" si="2">AVERAGE(B3,D3,F3,H3,J3)</f>
-        <v>3144</v>
+        <v>650</v>
       </c>
       <c r="E14" s="3">
         <f t="shared" ref="E14:E17" si="3">_xlfn.STDEV.S(B3,D3,F3,H3,J3)</f>
-        <v>162.93096697681506</v>
+        <v>21.563858652847824</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1579,7 +1579,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15:H19"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2343,7 +2343,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15:H19"/>
+      <selection activeCell="D21" sqref="D21:G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3107,7 +3107,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15:H19"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3871,7 +3871,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15:H19"/>
+      <selection activeCell="D21" sqref="D21:H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4635,7 +4635,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15:H19"/>
+      <selection activeCell="D21" sqref="D21:H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
